--- a/ExperimentFolder_v4.9.19/Paradigma/Protocol/protocol.xlsx
+++ b/ExperimentFolder_v4.9.19/Paradigma/Protocol/protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Subject ID</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>Chair not customizable, Crosshair contrast</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
 </sst>
 </file>
@@ -402,23 +414,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" customWidth="1"/>
-    <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46.44140625" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -477,6 +489,35 @@
       </c>
       <c r="I2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -491,7 +532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -503,7 +544,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
